--- a/examples/sbtab-sbml/jiang_model.xlsx
+++ b/examples/sbtab-sbml/jiang_model.xlsx
@@ -7,60 +7,60 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="!Compartment" sheetId="1" r:id="rId1"/>
-    <sheet name="!Compound" sheetId="2" r:id="rId2"/>
-    <sheet name="!Definition" sheetId="3" r:id="rId3"/>
-    <sheet name="!Enzyme" sheetId="4" r:id="rId4"/>
-    <sheet name="!FbcObjective" sheetId="5" r:id="rId5"/>
-    <sheet name="!Gene" sheetId="6" r:id="rId6"/>
-    <sheet name="!Layout" sheetId="7" r:id="rId7"/>
-    <sheet name="!Measurement" sheetId="8" r:id="rId8"/>
-    <sheet name="!PbConfig" sheetId="9" r:id="rId9"/>
-    <sheet name="!Position" sheetId="10" r:id="rId10"/>
-    <sheet name="!Protein" sheetId="11" r:id="rId11"/>
-    <sheet name="!Quantity" sheetId="12" r:id="rId12"/>
-    <sheet name="!QuantityInfo" sheetId="13" r:id="rId13"/>
-    <sheet name="!QuantityMatrix" sheetId="14" r:id="rId14"/>
-    <sheet name="!Reaction" sheetId="15" r:id="rId15"/>
-    <sheet name="!ReactionStoichiometry" sheetId="16" r:id="rId16"/>
-    <sheet name="!Regulator" sheetId="17" r:id="rId17"/>
-    <sheet name="!Relation" sheetId="18" r:id="rId18"/>
-    <sheet name="!Relationship" sheetId="19" r:id="rId19"/>
-    <sheet name="!SparseMatrix" sheetId="20" r:id="rId20"/>
-    <sheet name="!SparseMatrixColumn" sheetId="21" r:id="rId21"/>
-    <sheet name="!SparseMatrixOrdered" sheetId="22" r:id="rId22"/>
-    <sheet name="!SparseMatrixRow" sheetId="23" r:id="rId23"/>
-    <sheet name="!StoichiometricMatrix" sheetId="24" r:id="rId24"/>
-    <sheet name="!rxnconContingencyList" sheetId="25" r:id="rId25"/>
-    <sheet name="!rxnconReactionList" sheetId="26" r:id="rId26"/>
+    <sheet name="!!Compartment" sheetId="1" r:id="rId1"/>
+    <sheet name="!!Compound" sheetId="2" r:id="rId2"/>
+    <sheet name="!!Definition" sheetId="3" r:id="rId3"/>
+    <sheet name="!!Enzyme" sheetId="4" r:id="rId4"/>
+    <sheet name="!!FbcObjective" sheetId="5" r:id="rId5"/>
+    <sheet name="!!Gene" sheetId="6" r:id="rId6"/>
+    <sheet name="!!Layout" sheetId="7" r:id="rId7"/>
+    <sheet name="!!Measurement" sheetId="8" r:id="rId8"/>
+    <sheet name="!!PbConfig" sheetId="9" r:id="rId9"/>
+    <sheet name="!!Position" sheetId="10" r:id="rId10"/>
+    <sheet name="!!Protein" sheetId="11" r:id="rId11"/>
+    <sheet name="!!Quantity" sheetId="12" r:id="rId12"/>
+    <sheet name="!!QuantityInfo" sheetId="13" r:id="rId13"/>
+    <sheet name="!!QuantityMatrix" sheetId="14" r:id="rId14"/>
+    <sheet name="!!Reaction" sheetId="15" r:id="rId15"/>
+    <sheet name="!!ReactionStoichiometry" sheetId="16" r:id="rId16"/>
+    <sheet name="!!Regulator" sheetId="17" r:id="rId17"/>
+    <sheet name="!!Relation" sheetId="18" r:id="rId18"/>
+    <sheet name="!!Relationship" sheetId="19" r:id="rId19"/>
+    <sheet name="!!SparseMatrix" sheetId="20" r:id="rId20"/>
+    <sheet name="!!SparseMatrixColumn" sheetId="21" r:id="rId21"/>
+    <sheet name="!!SparseMatrixOrdered" sheetId="22" r:id="rId22"/>
+    <sheet name="!!SparseMatrixRow" sheetId="23" r:id="rId23"/>
+    <sheet name="!!StoichiometricMatrix" sheetId="24" r:id="rId24"/>
+    <sheet name="!!rxnconContingencyList" sheetId="25" r:id="rId25"/>
+    <sheet name="!!rxnconReactionList" sheetId="26" r:id="rId26"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!Compartment'!$A$2:$T$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!Compound'!$A$2:$AI$61</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'!Definition'!$A$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'!Enzyme'!$A$2:$S$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'!FbcObjective'!$A$2:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'!Gene'!$A$2:$V$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'!Layout'!$A$2:$M$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'!Measurement'!$A$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'!PbConfig'!$A$2:$B$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'!Position'!$A$2:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'!Protein'!$A$2:$O$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'!Quantity'!$A$2:$BW$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'!QuantityInfo'!$A$2:$S$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'!QuantityMatrix'!$A$2:$AW$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'!Reaction'!$A$2:$AU$47</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'!ReactionStoichiometry'!$A$2:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'!Regulator'!$A$2:$Q$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'!Relation'!$A$2:$J$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'!Relationship'!$A$2:$G$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">'!rxnconContingencyList'!$A$2:$H$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">'!rxnconReactionList'!$A$2:$L$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'!SparseMatrix'!$A$2:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'!SparseMatrixColumn'!$A$2:$B$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'!SparseMatrixOrdered'!$A$2:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">'!SparseMatrixRow'!$A$2:$B$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">'!StoichiometricMatrix'!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!Compartment'!$A$3:$T$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!!Compound'!$A$2:$AI$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'!!Definition'!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'!!Enzyme'!$A$2:$S$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'!!FbcObjective'!$A$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'!!Gene'!$A$2:$V$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'!!Layout'!$A$2:$M$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'!!Measurement'!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'!!PbConfig'!$A$2:$B$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'!!Position'!$A$2:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'!!Protein'!$A$2:$O$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'!!Quantity'!$A$2:$BW$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'!!QuantityInfo'!$A$2:$S$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'!!QuantityMatrix'!$A$2:$AW$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'!!Reaction'!$A$2:$AU$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'!!ReactionStoichiometry'!$A$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'!!Regulator'!$A$2:$Q$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'!!Relation'!$A$2:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'!!Relationship'!$A$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">'!!rxnconContingencyList'!$A$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">'!!rxnconReactionList'!$A$2:$L$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'!!SparseMatrix'!$A$2:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'!!SparseMatrixColumn'!$A$2:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'!!SparseMatrixOrdered'!$A$2:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">'!!SparseMatrixRow'!$A$2:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">'!!StoichiometricMatrix'!$A$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -72,7 +72,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0">
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="C3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -192,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -207,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0">
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0">
+    <comment ref="K3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -235,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0">
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -250,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -265,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0">
+    <comment ref="N3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -280,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0">
+    <comment ref="O3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -295,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0">
+    <comment ref="P3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -309,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0">
+    <comment ref="Q3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -324,7 +324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0">
+    <comment ref="R3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -339,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0">
+    <comment ref="S3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -354,7 +354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0">
+    <comment ref="T3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -6340,9 +6340,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="701">
-  <si>
-    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2019-10-10 02:12:42' ObjTablesVersion='0.0.8'</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="702">
+  <si>
+    <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2019-10-10 23:11:10'</t>
+  </si>
+  <si>
+    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2019-10-10 23:11:10' ObjTablesVersion='0.0.8' Document='BIOMD0000000239'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6429,7 +6432,7 @@
     <t>MATRIX</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2019-10-10 02:12:42' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2019-10-10 23:11:10' ObjTablesVersion='0.0.8' Document='BIOMD0000000239'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6918,7 +6921,7 @@
     <t>C00125</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2019-10-10 02:12:42' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2019-10-10 23:11:10' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6933,7 +6936,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2019-10-10 02:12:43' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2019-10-10 23:11:10' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6954,7 +6957,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2019-10-10 02:12:43' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2019-10-10 23:11:10' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6969,7 +6972,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2019-10-10 02:12:43' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2019-10-10 23:11:11' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6999,7 +7002,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2019-10-10 02:12:43' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2019-10-10 23:11:11' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -7035,7 +7038,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2019-10-10 02:12:43' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2019-10-10 23:11:11' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -7047,7 +7050,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2019-10-10 02:12:43' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2019-10-10 23:11:11' ObjTablesVersion='0.0.8' Document='BIOMD0000000239'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -7113,16 +7116,16 @@
     <t>ignore</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2019-10-10 02:12:43' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2019-10-10 23:11:11' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2019-10-10 02:12:43' ObjTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2019-10-10 02:12:43' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2019-10-10 23:11:11' ObjTablesVersion='0.0.8'</t>
+  </si>
+  <si>
+    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2019-10-10 23:11:11' ObjTablesVersion='0.0.8' Document='BIOMD0000000239'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -7590,7 +7593,7 @@
     <t>[0, 0, Nkm, 0, 0, 0, 0, 0]</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2019-10-10 02:12:43' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2019-10-10 23:11:11' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -7608,7 +7611,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2019-10-10 02:12:43' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2019-10-10 23:11:11' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -7647,7 +7650,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2019-10-10 02:12:43' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2019-10-10 23:11:12' ObjTablesVersion='0.0.8' Document='BIOMD0000000239'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -8316,7 +8319,7 @@
     <t>MATRIX * (v44_MDH * Kcat * Mal / (Km + Mal))</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2019-10-10 02:12:43' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2019-10-10 23:11:12' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -8328,7 +8331,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2019-10-10 02:12:43' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2019-10-10 23:11:12' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -8340,7 +8343,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2019-10-10 02:12:43' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2019-10-10 23:11:12' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!From</t>
@@ -8355,13 +8358,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2019-10-10 02:12:43' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2019-10-10 23:11:12' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2019-10-10 02:12:43' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2019-10-10 23:11:12' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -8370,13 +8373,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2019-10-10 02:12:43' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2019-10-10 23:11:12' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2019-10-10 02:12:43' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2019-10-10 23:11:12' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -8385,19 +8388,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2019-10-10 02:12:43' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2019-10-10 23:11:12' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2019-10-10 02:12:44' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2019-10-10 23:11:13' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2019-10-10 02:12:44' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2019-10-10 23:11:13' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -8418,7 +8421,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2019-10-10 02:12:44' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2019-10-10 23:11:13' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>
@@ -8816,10 +8819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -8854,94 +8857,90 @@
       <c r="T1" s="2"/>
     </row>
     <row r="2" spans="1:20" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" ht="15.01" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
     </row>
     <row r="4" spans="1:20" ht="15.01" customHeight="1">
       <c r="A4" s="4"/>
@@ -8950,7 +8949,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -8958,7 +8957,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -8978,7 +8977,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -8986,7 +8985,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -9006,7 +9005,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -9014,7 +9013,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -9027,71 +9026,99 @@
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
     </row>
+    <row r="7" spans="1:20" ht="15.01" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A2:T6"/>
+  <autoFilter ref="A3:T7"/>
   <dataValidations count="20">
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A6">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferenceName" error="Reference title, authors, etc. (as free text)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferenceName" prompt="Reference title, authors, etc. (as free text)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3:B6">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferencePubMed" error="Reference PubMed ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferencePubMed" prompt="Reference PubMed ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C3:C6">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferenceDOI" error="Reference DOI&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferenceDOI" prompt="Reference DOI&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D3:D6">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Description" error="Description of the row element&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Description" prompt="Description of the row element&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="E3:E6">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Entity name&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Entity name&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="F3:F6">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="MiriamAnnotations" error="Entity ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="MiriamAnnotations" prompt="Entity ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G3:G6">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Biochemical type of entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Type" prompt="Biochemical type of entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H3:H6">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Symbol" error="Short symbol (e.g. gene symbol)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Symbol" prompt="Short symbol (e.g. gene symbol)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="I3:I6">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="PositionX" error="x coordinate for graphical display&#10;&#10;Value must be a float or blank." promptTitle="PositionX" prompt="x coordinate for graphical display&#10;&#10;Enter a float or blank." sqref="J3:J6">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A4:A7">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferenceName" error="Reference title, authors, etc. (as free text)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferenceName" prompt="Reference title, authors, etc. (as free text)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B4:B7">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferencePubMed" error="Reference PubMed ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferencePubMed" prompt="Reference PubMed ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C4:C7">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferenceDOI" error="Reference DOI&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferenceDOI" prompt="Reference DOI&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D4:D7">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Description" error="Description of the row element&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Description" prompt="Description of the row element&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="E4:E7">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Entity name&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Entity name&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="F4:F7">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="MiriamAnnotations" error="Entity ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="MiriamAnnotations" prompt="Entity ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G4:G7">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Biochemical type of entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Type" prompt="Biochemical type of entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H4:H7">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Symbol" error="Short symbol (e.g. gene symbol)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Symbol" prompt="Short symbol (e.g. gene symbol)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="I4:I7">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="PositionX" error="x coordinate for graphical display&#10;&#10;Value must be a float or blank." promptTitle="PositionX" prompt="x coordinate for graphical display&#10;&#10;Enter a float or blank." sqref="J4:J7">
       <formula1>-1e+100</formula1>
       <formula2>1e+100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="PositionY" error="y coordinate for graphical display&#10;&#10;Value must be a float or blank." promptTitle="PositionY" prompt="y coordinate for graphical display&#10;&#10;Enter a float or blank." sqref="K3:K6">
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="PositionY" error="y coordinate for graphical display&#10;&#10;Value must be a float or blank." promptTitle="PositionY" prompt="y coordinate for graphical display&#10;&#10;Enter a float or blank." sqref="K4:K7">
       <formula1>-1e+100</formula1>
       <formula2>1e+100</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Compartment shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Compartment shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="L3:L6">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SBML:compartment:id" error="SBML compartment ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="SBML:compartment:id" prompt="SBML compartment ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="M3:M6">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="OuterCompartment" error="Surrounding compartment (short)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="OuterCompartment" prompt="Surrounding compartment (short)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="N3:N6">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="OuterCompartment:SBML:compar ..." error="Surrounding compartment (name)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="OuterCompartment:SBML:compar ..." prompt="Surrounding compartment (name)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="O3:O6">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Size" error="Compartment size&#10;&#10;Value must be a float or blank." promptTitle="Size" prompt="Compartment size&#10;&#10;Enter a float or blank." sqref="P3:P6">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Compartment shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Compartment shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="L4:L7">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SBML:compartment:id" error="SBML compartment ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="SBML:compartment:id" prompt="SBML compartment ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="M4:M7">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="OuterCompartment" error="Surrounding compartment (short)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="OuterCompartment" prompt="Surrounding compartment (short)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="N4:N7">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="OuterCompartment:SBML:compar ..." error="Surrounding compartment (name)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="OuterCompartment:SBML:compar ..." prompt="Surrounding compartment (name)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="O4:O7">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Size" error="Compartment size&#10;&#10;Value must be a float or blank." promptTitle="Size" prompt="Compartment size&#10;&#10;Enter a float or blank." sqref="P4:P7">
       <formula1>-1e+100</formula1>
       <formula2>1e+100</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unit" error="Physical unit&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Unit" prompt="Physical unit&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="Q3:Q6">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SBOTerm" error="SBO term of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="SBOTerm" prompt="SBO term of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="R3:R6">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Annotation of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Identifiers" prompt="Annotation of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="S3:S6">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers:sbo.go" error="Annotation of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Identifiers:sbo.go" prompt="Annotation of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="T3:T6">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unit" error="Physical unit&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Unit" prompt="Physical unit&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="Q4:Q7">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SBOTerm" error="SBO term of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="SBOTerm" prompt="SBO term of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="R4:R7">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Annotation of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Identifiers" prompt="Annotation of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="S4:S7">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers:sbo.go" error="Annotation of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Identifiers:sbo.go" prompt="Annotation of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="T4:T7">
       <formula1>255</formula1>
     </dataValidation>
   </dataValidations>
@@ -9117,20 +9144,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -9171,7 +9198,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -9190,49 +9217,49 @@
     </row>
     <row r="2" spans="1:15" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -9311,7 +9338,7 @@
   <sheetData>
     <row r="1" spans="1:75" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -9390,229 +9417,229 @@
     </row>
     <row r="2" spans="1:75" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AX2" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AY2" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AZ2" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="BA2" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="BB2" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="BC2" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="BD2" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="BE2" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="BF2" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="BG2" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="BH2" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="BI2" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="BJ2" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="BK2" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="BL2" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="BM2" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="BN2" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="BO2" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="BP2" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="BQ2" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="BR2" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="BS2" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="BT2" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BU2" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="BV2" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="BW2" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:75" ht="15.01" customHeight="1">
@@ -9625,7 +9652,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -9634,7 +9661,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
@@ -9644,12 +9671,12 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
@@ -9677,10 +9704,10 @@
       <c r="AY3" s="4"/>
       <c r="AZ3" s="4"/>
       <c r="BA3" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="BB3" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="BC3" s="4"/>
       <c r="BD3" s="4">
@@ -9700,22 +9727,22 @@
         <v>10</v>
       </c>
       <c r="BJ3" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="BK3" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="BL3" s="4" t="b">
         <v>1</v>
       </c>
       <c r="BM3" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="BN3" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="BO3" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="BP3" s="4"/>
       <c r="BQ3" s="4"/>
@@ -9736,7 +9763,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -9745,7 +9772,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -9755,12 +9782,12 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
@@ -9788,10 +9815,10 @@
       <c r="AY4" s="4"/>
       <c r="AZ4" s="4"/>
       <c r="BA4" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="BB4" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="BC4" s="4"/>
       <c r="BD4" s="4">
@@ -9811,22 +9838,22 @@
         <v>100</v>
       </c>
       <c r="BJ4" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="BK4" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="BL4" s="4" t="b">
         <v>1</v>
       </c>
       <c r="BM4" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="BN4" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="BO4" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="BP4" s="4"/>
       <c r="BQ4" s="4"/>
@@ -9847,7 +9874,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -9856,7 +9883,7 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -9866,12 +9893,12 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
@@ -9899,10 +9926,10 @@
       <c r="AY5" s="4"/>
       <c r="AZ5" s="4"/>
       <c r="BA5" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="BB5" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="BC5" s="4"/>
       <c r="BD5" s="4">
@@ -9922,22 +9949,22 @@
         <v>1</v>
       </c>
       <c r="BJ5" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="BK5" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="BL5" s="4" t="b">
         <v>1</v>
       </c>
       <c r="BM5" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="BN5" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="BO5" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="BP5" s="4"/>
       <c r="BQ5" s="4"/>
@@ -9958,7 +9985,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -9967,7 +9994,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -9977,12 +10004,12 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
@@ -10010,10 +10037,10 @@
       <c r="AY6" s="4"/>
       <c r="AZ6" s="4"/>
       <c r="BA6" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="BB6" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="BC6" s="4"/>
       <c r="BD6" s="4">
@@ -10033,22 +10060,22 @@
         <v>1</v>
       </c>
       <c r="BJ6" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="BK6" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="BL6" s="4" t="b">
         <v>1</v>
       </c>
       <c r="BM6" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="BN6" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="BO6" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="BP6" s="4"/>
       <c r="BQ6" s="4"/>
@@ -10069,7 +10096,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -10078,7 +10105,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -10088,12 +10115,12 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
@@ -10121,10 +10148,10 @@
       <c r="AY7" s="4"/>
       <c r="AZ7" s="4"/>
       <c r="BA7" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="BB7" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="BC7" s="4"/>
       <c r="BD7" s="4">
@@ -10144,22 +10171,22 @@
         <v>1</v>
       </c>
       <c r="BJ7" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="BK7" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="BL7" s="4" t="b">
         <v>1</v>
       </c>
       <c r="BM7" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="BN7" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="BO7" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="BP7" s="4"/>
       <c r="BQ7" s="4"/>
@@ -10180,7 +10207,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -10189,7 +10216,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -10199,12 +10226,12 @@
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
@@ -10232,10 +10259,10 @@
       <c r="AY8" s="4"/>
       <c r="AZ8" s="4"/>
       <c r="BA8" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="BB8" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="BC8" s="4"/>
       <c r="BD8" s="4">
@@ -10255,22 +10282,22 @@
         <v>1</v>
       </c>
       <c r="BJ8" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="BK8" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="BL8" s="4" t="b">
         <v>1</v>
       </c>
       <c r="BM8" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="BN8" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="BO8" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="BP8" s="4"/>
       <c r="BQ8" s="4"/>
@@ -10291,7 +10318,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -10300,7 +10327,7 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -10310,12 +10337,12 @@
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
@@ -10343,10 +10370,10 @@
       <c r="AY9" s="4"/>
       <c r="AZ9" s="4"/>
       <c r="BA9" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="BB9" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="BC9" s="4"/>
       <c r="BD9" s="4">
@@ -10366,22 +10393,22 @@
         <v>0.05</v>
       </c>
       <c r="BJ9" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="BK9" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="BL9" s="4" t="b">
         <v>1</v>
       </c>
       <c r="BM9" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="BN9" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="BO9" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="BP9" s="4"/>
       <c r="BQ9" s="4"/>
@@ -10402,7 +10429,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -10411,7 +10438,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -10421,12 +10448,12 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
@@ -10454,10 +10481,10 @@
       <c r="AY10" s="4"/>
       <c r="AZ10" s="4"/>
       <c r="BA10" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="BB10" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="BC10" s="4"/>
       <c r="BD10" s="4">
@@ -10477,22 +10504,22 @@
         <v>1</v>
       </c>
       <c r="BJ10" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="BK10" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="BL10" s="4" t="b">
         <v>1</v>
       </c>
       <c r="BM10" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="BN10" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="BO10" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="BP10" s="4"/>
       <c r="BQ10" s="4"/>
@@ -10513,7 +10540,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -10522,7 +10549,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
@@ -10532,12 +10559,12 @@
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
       <c r="X11" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
@@ -10565,10 +10592,10 @@
       <c r="AY11" s="4"/>
       <c r="AZ11" s="4"/>
       <c r="BA11" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="BB11" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="BC11" s="4"/>
       <c r="BD11" s="4">
@@ -10588,22 +10615,22 @@
         <v>10</v>
       </c>
       <c r="BJ11" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="BK11" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BL11" s="4" t="b">
         <v>0</v>
       </c>
       <c r="BM11" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="BN11" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="BO11" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="BP11" s="4"/>
       <c r="BQ11" s="4"/>
@@ -10624,7 +10651,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -10633,7 +10660,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -10643,12 +10670,12 @@
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
@@ -10676,10 +10703,10 @@
       <c r="AY12" s="4"/>
       <c r="AZ12" s="4"/>
       <c r="BA12" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="BB12" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="BC12" s="4"/>
       <c r="BD12" s="4">
@@ -10699,22 +10726,22 @@
         <v>100</v>
       </c>
       <c r="BJ12" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="BK12" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BL12" s="4" t="b">
         <v>1</v>
       </c>
       <c r="BM12" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="BN12" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="BO12" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="BP12" s="4"/>
       <c r="BQ12" s="4"/>
@@ -10735,7 +10762,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -10744,7 +10771,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -10754,12 +10781,12 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
@@ -10787,10 +10814,10 @@
       <c r="AY13" s="4"/>
       <c r="AZ13" s="4"/>
       <c r="BA13" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="BB13" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="BC13" s="4"/>
       <c r="BD13" s="4">
@@ -10810,22 +10837,22 @@
         <v>100</v>
       </c>
       <c r="BJ13" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="BK13" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BL13" s="4" t="b">
         <v>1</v>
       </c>
       <c r="BM13" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="BN13" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="BO13" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="BP13" s="4"/>
       <c r="BQ13" s="4"/>
@@ -10846,7 +10873,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -10855,7 +10882,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
@@ -10865,12 +10892,12 @@
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
       <c r="AA14" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
@@ -10898,10 +10925,10 @@
       <c r="AY14" s="4"/>
       <c r="AZ14" s="4"/>
       <c r="BA14" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="BB14" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="BC14" s="4"/>
       <c r="BD14" s="4">
@@ -10921,22 +10948,22 @@
         <v>100</v>
       </c>
       <c r="BJ14" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="BK14" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BL14" s="4" t="b">
         <v>1</v>
       </c>
       <c r="BM14" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="BN14" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="BO14" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="BP14" s="4"/>
       <c r="BQ14" s="4"/>
@@ -10957,7 +10984,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -10966,7 +10993,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -10976,12 +11003,12 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
@@ -11009,10 +11036,10 @@
       <c r="AY15" s="4"/>
       <c r="AZ15" s="4"/>
       <c r="BA15" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="BB15" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="BC15" s="4"/>
       <c r="BD15" s="4">
@@ -11032,20 +11059,20 @@
         <v>20</v>
       </c>
       <c r="BJ15" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="BK15" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BL15" s="4" t="b">
         <v>0</v>
       </c>
       <c r="BM15" s="4"/>
       <c r="BN15" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="BO15" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="BP15" s="4"/>
       <c r="BQ15" s="4"/>
@@ -11066,7 +11093,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -11075,7 +11102,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
@@ -11085,12 +11112,12 @@
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
@@ -11118,10 +11145,10 @@
       <c r="AY16" s="4"/>
       <c r="AZ16" s="4"/>
       <c r="BA16" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="BB16" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="BC16" s="4"/>
       <c r="BD16" s="4">
@@ -11141,20 +11168,20 @@
         <v>10</v>
       </c>
       <c r="BJ16" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="BK16" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BL16" s="4" t="b">
         <v>0</v>
       </c>
       <c r="BM16" s="4"/>
       <c r="BN16" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="BO16" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="BP16" s="4"/>
       <c r="BQ16" s="4"/>
@@ -11175,7 +11202,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -11184,7 +11211,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
@@ -11194,12 +11221,12 @@
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
       <c r="AA17" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
@@ -11227,10 +11254,10 @@
       <c r="AY17" s="4"/>
       <c r="AZ17" s="4"/>
       <c r="BA17" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="BB17" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="BC17" s="4"/>
       <c r="BD17" s="4">
@@ -11250,22 +11277,22 @@
         <v>0.1</v>
       </c>
       <c r="BJ17" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="BK17" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BL17" s="4" t="b">
         <v>0</v>
       </c>
       <c r="BM17" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="BN17" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="BO17" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="BP17" s="4"/>
       <c r="BQ17" s="4"/>
@@ -11286,7 +11313,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -11295,7 +11322,7 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
@@ -11305,12 +11332,12 @@
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
       <c r="X18" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
       <c r="AA18" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
@@ -11338,10 +11365,10 @@
       <c r="AY18" s="4"/>
       <c r="AZ18" s="4"/>
       <c r="BA18" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="BB18" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="BC18" s="4"/>
       <c r="BD18" s="4">
@@ -11361,22 +11388,22 @@
         <v>0.1</v>
       </c>
       <c r="BJ18" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="BK18" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BL18" s="4" t="b">
         <v>0</v>
       </c>
       <c r="BM18" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="BN18" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="BO18" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="BP18" s="4"/>
       <c r="BQ18" s="4"/>
@@ -11397,7 +11424,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -11406,7 +11433,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
@@ -11416,12 +11443,12 @@
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
       <c r="AA19" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
@@ -11449,10 +11476,10 @@
       <c r="AY19" s="4"/>
       <c r="AZ19" s="4"/>
       <c r="BA19" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="BB19" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="BC19" s="4"/>
       <c r="BD19" s="4">
@@ -11472,20 +11499,20 @@
         <v>1</v>
       </c>
       <c r="BJ19" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="BK19" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BL19" s="4" t="b">
         <v>0</v>
       </c>
       <c r="BM19" s="4"/>
       <c r="BN19" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="BO19" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="BP19" s="4"/>
       <c r="BQ19" s="4"/>
@@ -11506,7 +11533,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -11515,7 +11542,7 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
@@ -11525,12 +11552,12 @@
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
       <c r="X20" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
       <c r="AA20" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
@@ -11558,10 +11585,10 @@
       <c r="AY20" s="4"/>
       <c r="AZ20" s="4"/>
       <c r="BA20" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="BB20" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="BC20" s="4"/>
       <c r="BD20" s="4">
@@ -11581,20 +11608,20 @@
         <v>1</v>
       </c>
       <c r="BJ20" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="BK20" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BL20" s="4" t="b">
         <v>0</v>
       </c>
       <c r="BM20" s="4"/>
       <c r="BN20" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="BO20" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="BP20" s="4"/>
       <c r="BQ20" s="4"/>
@@ -11615,7 +11642,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -11624,7 +11651,7 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
@@ -11634,12 +11661,12 @@
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
@@ -11667,10 +11694,10 @@
       <c r="AY21" s="4"/>
       <c r="AZ21" s="4"/>
       <c r="BA21" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="BB21" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="BC21" s="4"/>
       <c r="BD21" s="4">
@@ -11690,20 +11717,20 @@
         <v>1</v>
       </c>
       <c r="BJ21" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="BK21" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BL21" s="4" t="b">
         <v>0</v>
       </c>
       <c r="BM21" s="4"/>
       <c r="BN21" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="BO21" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="BP21" s="4"/>
       <c r="BQ21" s="4"/>
@@ -11724,7 +11751,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -11733,7 +11760,7 @@
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -11743,12 +11770,12 @@
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
       <c r="X22" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
@@ -11776,10 +11803,10 @@
       <c r="AY22" s="4"/>
       <c r="AZ22" s="4"/>
       <c r="BA22" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="BB22" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="BC22" s="4"/>
       <c r="BD22" s="4">
@@ -11799,20 +11826,20 @@
         <v>1</v>
       </c>
       <c r="BJ22" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="BK22" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BL22" s="4" t="b">
         <v>0</v>
       </c>
       <c r="BM22" s="4"/>
       <c r="BN22" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="BO22" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="BP22" s="4"/>
       <c r="BQ22" s="4"/>
@@ -11833,7 +11860,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -11842,7 +11869,7 @@
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
@@ -11852,12 +11879,12 @@
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
       <c r="X23" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
       <c r="AA23" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
@@ -11885,10 +11912,10 @@
       <c r="AY23" s="4"/>
       <c r="AZ23" s="4"/>
       <c r="BA23" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="BB23" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="BC23" s="4"/>
       <c r="BD23" s="4">
@@ -11908,22 +11935,22 @@
         <v>1</v>
       </c>
       <c r="BJ23" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="BK23" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BL23" s="4" t="b">
         <v>0</v>
       </c>
       <c r="BM23" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="BN23" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="BO23" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="BP23" s="4"/>
       <c r="BQ23" s="4"/>
@@ -12210,7 +12237,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -12233,61 +12260,61 @@
     </row>
     <row r="2" spans="1:19" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -12380,7 +12407,7 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -12433,151 +12460,151 @@
     </row>
     <row r="2" spans="1:49" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD2" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>274</v>
-      </c>
       <c r="AE2" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -12772,7 +12799,7 @@
   <sheetData>
     <row r="1" spans="1:47" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -12823,145 +12850,145 @@
     </row>
     <row r="2" spans="1:47" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="S2" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC2" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="T2" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>201</v>
-      </c>
       <c r="AD2" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:47" ht="15.01" customHeight="1">
@@ -12978,11 +13005,11 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -13006,7 +13033,7 @@
         <v>0</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
@@ -13049,11 +13076,11 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -13077,7 +13104,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
@@ -13120,11 +13147,11 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
@@ -13148,7 +13175,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
@@ -13185,7 +13212,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -13193,11 +13220,11 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -13221,7 +13248,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
@@ -13244,7 +13271,7 @@
       <c r="AN6" s="4"/>
       <c r="AO6" s="4"/>
       <c r="AP6" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AQ6" s="4"/>
       <c r="AR6" s="4"/>
@@ -13260,7 +13287,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -13268,11 +13295,11 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -13296,7 +13323,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
@@ -13319,13 +13346,13 @@
       <c r="AN7" s="4"/>
       <c r="AO7" s="4"/>
       <c r="AP7" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AQ7" s="4"/>
       <c r="AR7" s="4"/>
       <c r="AS7" s="4"/>
       <c r="AT7" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AU7" s="4"/>
     </row>
@@ -13337,7 +13364,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -13345,11 +13372,11 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -13373,7 +13400,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
@@ -13396,7 +13423,7 @@
       <c r="AN8" s="4"/>
       <c r="AO8" s="4"/>
       <c r="AP8" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AQ8" s="4"/>
       <c r="AR8" s="4"/>
@@ -13412,7 +13439,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -13420,11 +13447,11 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -13448,7 +13475,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
@@ -13471,7 +13498,7 @@
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
       <c r="AP9" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AQ9" s="4"/>
       <c r="AR9" s="4"/>
@@ -13487,7 +13514,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -13495,11 +13522,11 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -13523,7 +13550,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
@@ -13546,7 +13573,7 @@
       <c r="AN10" s="4"/>
       <c r="AO10" s="4"/>
       <c r="AP10" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AQ10" s="4"/>
       <c r="AR10" s="4"/>
@@ -13562,7 +13589,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -13570,11 +13597,11 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
@@ -13598,7 +13625,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
@@ -13621,7 +13648,7 @@
       <c r="AN11" s="4"/>
       <c r="AO11" s="4"/>
       <c r="AP11" s="4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AQ11" s="4"/>
       <c r="AR11" s="4"/>
@@ -13637,7 +13664,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -13645,11 +13672,11 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
@@ -13673,7 +13700,7 @@
         <v>0</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
@@ -13696,7 +13723,7 @@
       <c r="AN12" s="4"/>
       <c r="AO12" s="4"/>
       <c r="AP12" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AQ12" s="4"/>
       <c r="AR12" s="4"/>
@@ -13718,11 +13745,11 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -13746,7 +13773,7 @@
         <v>0</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
@@ -13783,7 +13810,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -13791,11 +13818,11 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
@@ -13819,7 +13846,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
@@ -13856,7 +13883,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -13864,11 +13891,11 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
@@ -13892,7 +13919,7 @@
         <v>0</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
@@ -13915,7 +13942,7 @@
       <c r="AN15" s="4"/>
       <c r="AO15" s="4"/>
       <c r="AP15" s="4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AQ15" s="4"/>
       <c r="AR15" s="4"/>
@@ -13931,7 +13958,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -13939,11 +13966,11 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
@@ -13967,7 +13994,7 @@
         <v>0</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
@@ -13990,7 +14017,7 @@
       <c r="AN16" s="4"/>
       <c r="AO16" s="4"/>
       <c r="AP16" s="4" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AQ16" s="4"/>
       <c r="AR16" s="4"/>
@@ -14006,7 +14033,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -14014,11 +14041,11 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
@@ -14042,7 +14069,7 @@
         <v>0</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
@@ -14065,7 +14092,7 @@
       <c r="AN17" s="4"/>
       <c r="AO17" s="4"/>
       <c r="AP17" s="4" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AQ17" s="4"/>
       <c r="AR17" s="4"/>
@@ -14081,7 +14108,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -14089,11 +14116,11 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
@@ -14117,7 +14144,7 @@
         <v>0</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
@@ -14140,13 +14167,13 @@
       <c r="AN18" s="4"/>
       <c r="AO18" s="4"/>
       <c r="AP18" s="4" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AQ18" s="4"/>
       <c r="AR18" s="4"/>
       <c r="AS18" s="4"/>
       <c r="AT18" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AU18" s="4"/>
     </row>
@@ -14158,7 +14185,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -14166,11 +14193,11 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
@@ -14194,7 +14221,7 @@
         <v>0</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
@@ -14217,7 +14244,7 @@
       <c r="AN19" s="4"/>
       <c r="AO19" s="4"/>
       <c r="AP19" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AQ19" s="4"/>
       <c r="AR19" s="4"/>
@@ -14233,7 +14260,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -14241,11 +14268,11 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
@@ -14269,7 +14296,7 @@
         <v>0</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
@@ -14292,7 +14319,7 @@
       <c r="AN20" s="4"/>
       <c r="AO20" s="4"/>
       <c r="AP20" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AQ20" s="4"/>
       <c r="AR20" s="4"/>
@@ -14308,7 +14335,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -14316,11 +14343,11 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N21" s="4"/>
       <c r="O21" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
@@ -14344,7 +14371,7 @@
         <v>0</v>
       </c>
       <c r="AA21" s="4" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
@@ -14367,7 +14394,7 @@
       <c r="AN21" s="4"/>
       <c r="AO21" s="4"/>
       <c r="AP21" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AQ21" s="4"/>
       <c r="AR21" s="4"/>
@@ -14383,7 +14410,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -14391,11 +14418,11 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N22" s="4"/>
       <c r="O22" s="4" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
@@ -14419,7 +14446,7 @@
         <v>0</v>
       </c>
       <c r="AA22" s="4" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
@@ -14442,7 +14469,7 @@
       <c r="AN22" s="4"/>
       <c r="AO22" s="4"/>
       <c r="AP22" s="4" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AQ22" s="4"/>
       <c r="AR22" s="4"/>
@@ -14458,7 +14485,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -14466,11 +14493,11 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
@@ -14494,7 +14521,7 @@
         <v>0</v>
       </c>
       <c r="AA23" s="4" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
@@ -14517,7 +14544,7 @@
       <c r="AN23" s="4"/>
       <c r="AO23" s="4"/>
       <c r="AP23" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AQ23" s="4"/>
       <c r="AR23" s="4"/>
@@ -14533,7 +14560,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -14541,11 +14568,11 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N24" s="4"/>
       <c r="O24" s="4" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
@@ -14569,7 +14596,7 @@
         <v>0</v>
       </c>
       <c r="AA24" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
@@ -14592,7 +14619,7 @@
       <c r="AN24" s="4"/>
       <c r="AO24" s="4"/>
       <c r="AP24" s="4" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AQ24" s="4"/>
       <c r="AR24" s="4"/>
@@ -14608,7 +14635,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -14616,11 +14643,11 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N25" s="4"/>
       <c r="O25" s="4" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
@@ -14644,7 +14671,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
@@ -14667,7 +14694,7 @@
       <c r="AN25" s="4"/>
       <c r="AO25" s="4"/>
       <c r="AP25" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AQ25" s="4"/>
       <c r="AR25" s="4"/>
@@ -14683,7 +14710,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -14691,11 +14718,11 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="N26" s="4"/>
       <c r="O26" s="4" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
@@ -14719,7 +14746,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
@@ -14756,7 +14783,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -14764,11 +14791,11 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N27" s="4"/>
       <c r="O27" s="4" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
@@ -14792,7 +14819,7 @@
         <v>0</v>
       </c>
       <c r="AA27" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
@@ -14815,7 +14842,7 @@
       <c r="AN27" s="4"/>
       <c r="AO27" s="4"/>
       <c r="AP27" s="4" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AQ27" s="4"/>
       <c r="AR27" s="4"/>
@@ -14831,7 +14858,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -14839,11 +14866,11 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N28" s="4"/>
       <c r="O28" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
@@ -14867,7 +14894,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="4" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
@@ -14890,7 +14917,7 @@
       <c r="AN28" s="4"/>
       <c r="AO28" s="4"/>
       <c r="AP28" s="4" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AQ28" s="4"/>
       <c r="AR28" s="4"/>
@@ -14906,7 +14933,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -14914,11 +14941,11 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="N29" s="4"/>
       <c r="O29" s="4" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
@@ -14942,7 +14969,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
@@ -14965,7 +14992,7 @@
       <c r="AN29" s="4"/>
       <c r="AO29" s="4"/>
       <c r="AP29" s="4" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AQ29" s="4"/>
       <c r="AR29" s="4"/>
@@ -14981,7 +15008,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -14989,11 +15016,11 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N30" s="4"/>
       <c r="O30" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
@@ -15017,7 +15044,7 @@
         <v>0</v>
       </c>
       <c r="AA30" s="4" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
@@ -15040,7 +15067,7 @@
       <c r="AN30" s="4"/>
       <c r="AO30" s="4"/>
       <c r="AP30" s="4" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AQ30" s="4"/>
       <c r="AR30" s="4"/>
@@ -15056,7 +15083,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -15064,11 +15091,11 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N31" s="4"/>
       <c r="O31" s="4" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
@@ -15092,7 +15119,7 @@
         <v>0</v>
       </c>
       <c r="AA31" s="4" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
@@ -15115,7 +15142,7 @@
       <c r="AN31" s="4"/>
       <c r="AO31" s="4"/>
       <c r="AP31" s="4" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AQ31" s="4"/>
       <c r="AR31" s="4"/>
@@ -15131,7 +15158,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -15139,11 +15166,11 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N32" s="4"/>
       <c r="O32" s="4" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
@@ -15167,7 +15194,7 @@
         <v>0</v>
       </c>
       <c r="AA32" s="4" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
@@ -15190,7 +15217,7 @@
       <c r="AN32" s="4"/>
       <c r="AO32" s="4"/>
       <c r="AP32" s="4" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AQ32" s="4"/>
       <c r="AR32" s="4"/>
@@ -15206,7 +15233,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -15214,11 +15241,11 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="N33" s="4"/>
       <c r="O33" s="4" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
@@ -15242,7 +15269,7 @@
         <v>0</v>
       </c>
       <c r="AA33" s="4" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
@@ -15279,7 +15306,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
@@ -15287,11 +15314,11 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="N34" s="4"/>
       <c r="O34" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
@@ -15315,7 +15342,7 @@
         <v>0</v>
       </c>
       <c r="AA34" s="4" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
@@ -15338,7 +15365,7 @@
       <c r="AN34" s="4"/>
       <c r="AO34" s="4"/>
       <c r="AP34" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AQ34" s="4"/>
       <c r="AR34" s="4"/>
@@ -15354,7 +15381,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -15362,11 +15389,11 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="N35" s="4"/>
       <c r="O35" s="4" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
@@ -15390,7 +15417,7 @@
         <v>0</v>
       </c>
       <c r="AA35" s="4" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
@@ -15413,7 +15440,7 @@
       <c r="AN35" s="4"/>
       <c r="AO35" s="4"/>
       <c r="AP35" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AQ35" s="4"/>
       <c r="AR35" s="4"/>
@@ -15429,7 +15456,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -15437,11 +15464,11 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="N36" s="4"/>
       <c r="O36" s="4" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
@@ -15465,7 +15492,7 @@
         <v>0</v>
       </c>
       <c r="AA36" s="4" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
@@ -15502,7 +15529,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -15510,11 +15537,11 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="N37" s="4"/>
       <c r="O37" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
@@ -15538,7 +15565,7 @@
         <v>0</v>
       </c>
       <c r="AA37" s="4" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
@@ -15561,7 +15588,7 @@
       <c r="AN37" s="4"/>
       <c r="AO37" s="4"/>
       <c r="AP37" s="4" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AQ37" s="4"/>
       <c r="AR37" s="4"/>
@@ -15577,7 +15604,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -15585,11 +15612,11 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="N38" s="4"/>
       <c r="O38" s="4" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
@@ -15613,7 +15640,7 @@
         <v>0</v>
       </c>
       <c r="AA38" s="4" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
@@ -15636,7 +15663,7 @@
       <c r="AN38" s="4"/>
       <c r="AO38" s="4"/>
       <c r="AP38" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AQ38" s="4"/>
       <c r="AR38" s="4"/>
@@ -15652,7 +15679,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -15660,11 +15687,11 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N39" s="4"/>
       <c r="O39" s="4" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
@@ -15688,7 +15715,7 @@
         <v>0</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
@@ -15711,7 +15738,7 @@
       <c r="AN39" s="4"/>
       <c r="AO39" s="4"/>
       <c r="AP39" s="4" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AQ39" s="4"/>
       <c r="AR39" s="4"/>
@@ -15727,7 +15754,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -15735,11 +15762,11 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="N40" s="4"/>
       <c r="O40" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
@@ -15763,7 +15790,7 @@
         <v>0</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
@@ -15786,7 +15813,7 @@
       <c r="AN40" s="4"/>
       <c r="AO40" s="4"/>
       <c r="AP40" s="4" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AQ40" s="4"/>
       <c r="AR40" s="4"/>
@@ -15802,7 +15829,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -15810,11 +15837,11 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="N41" s="4"/>
       <c r="O41" s="4" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
@@ -15838,7 +15865,7 @@
         <v>0</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
@@ -15861,7 +15888,7 @@
       <c r="AN41" s="4"/>
       <c r="AO41" s="4"/>
       <c r="AP41" s="4" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AQ41" s="4"/>
       <c r="AR41" s="4"/>
@@ -15877,7 +15904,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
@@ -15885,11 +15912,11 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N42" s="4"/>
       <c r="O42" s="4" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
@@ -15913,7 +15940,7 @@
         <v>0</v>
       </c>
       <c r="AA42" s="4" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
@@ -15950,7 +15977,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
@@ -15958,11 +15985,11 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="N43" s="4"/>
       <c r="O43" s="4" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
@@ -15986,7 +16013,7 @@
         <v>0</v>
       </c>
       <c r="AA43" s="4" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
@@ -16009,13 +16036,13 @@
       <c r="AN43" s="4"/>
       <c r="AO43" s="4"/>
       <c r="AP43" s="4" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AQ43" s="4"/>
       <c r="AR43" s="4"/>
       <c r="AS43" s="4"/>
       <c r="AT43" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AU43" s="4"/>
     </row>
@@ -16027,7 +16054,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -16035,11 +16062,11 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="N44" s="4"/>
       <c r="O44" s="4" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
@@ -16063,7 +16090,7 @@
         <v>0</v>
       </c>
       <c r="AA44" s="4" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
@@ -16100,7 +16127,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
@@ -16108,11 +16135,11 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="N45" s="4"/>
       <c r="O45" s="4" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
@@ -16136,7 +16163,7 @@
         <v>0</v>
       </c>
       <c r="AA45" s="4" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
@@ -16173,7 +16200,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
@@ -16181,11 +16208,11 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="N46" s="4"/>
       <c r="O46" s="4" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
@@ -16209,7 +16236,7 @@
         <v>0</v>
       </c>
       <c r="AA46" s="4" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
@@ -16232,7 +16259,7 @@
       <c r="AN46" s="4"/>
       <c r="AO46" s="4"/>
       <c r="AP46" s="4" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AQ46" s="4"/>
       <c r="AR46" s="4"/>
@@ -16248,7 +16275,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
@@ -16256,11 +16283,11 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="N47" s="4"/>
       <c r="O47" s="4" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
@@ -16284,7 +16311,7 @@
         <v>0</v>
       </c>
       <c r="AA47" s="4" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
@@ -16307,7 +16334,7 @@
       <c r="AN47" s="4"/>
       <c r="AO47" s="4"/>
       <c r="AP47" s="4" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AQ47" s="4"/>
       <c r="AR47" s="4"/>
@@ -16486,7 +16513,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -16496,22 +16523,22 @@
     </row>
     <row r="2" spans="1:6" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -16559,7 +16586,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -16580,55 +16607,55 @@
     </row>
     <row r="2" spans="1:17" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -16711,7 +16738,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -16725,34 +16752,34 @@
     </row>
     <row r="2" spans="1:10" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
   </sheetData>
@@ -16813,7 +16840,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -16824,25 +16851,25 @@
     </row>
     <row r="2" spans="1:7" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
   </sheetData>
@@ -16894,7 +16921,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -16933,109 +16960,109 @@
     </row>
     <row r="2" spans="1:35" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="15.01" customHeight="1">
@@ -17045,7 +17072,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -17053,7 +17080,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -17063,7 +17090,7 @@
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
@@ -17081,7 +17108,7 @@
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
       <c r="AD3" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
@@ -17098,7 +17125,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -17106,7 +17133,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -17116,7 +17143,7 @@
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
@@ -17134,7 +17161,7 @@
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
@@ -17151,7 +17178,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -17159,7 +17186,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -17169,7 +17196,7 @@
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
@@ -17187,7 +17214,7 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
@@ -17204,7 +17231,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -17212,7 +17239,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -17222,7 +17249,7 @@
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
@@ -17240,7 +17267,7 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
@@ -17257,7 +17284,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -17265,7 +17292,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -17275,7 +17302,7 @@
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
@@ -17293,7 +17320,7 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
@@ -17310,7 +17337,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -17318,7 +17345,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -17328,7 +17355,7 @@
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
@@ -17346,7 +17373,7 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
@@ -17363,7 +17390,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -17371,7 +17398,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -17381,7 +17408,7 @@
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
@@ -17399,7 +17426,7 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
@@ -17416,7 +17443,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -17424,7 +17451,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -17434,7 +17461,7 @@
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
@@ -17452,7 +17479,7 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
@@ -17469,7 +17496,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -17477,7 +17504,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -17487,7 +17514,7 @@
       </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
@@ -17505,7 +17532,7 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
@@ -17522,7 +17549,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -17530,7 +17557,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -17540,7 +17567,7 @@
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
@@ -17558,7 +17585,7 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
@@ -17575,7 +17602,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -17583,7 +17610,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -17593,7 +17620,7 @@
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
@@ -17611,7 +17638,7 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
@@ -17628,7 +17655,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -17636,7 +17663,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -17646,7 +17673,7 @@
       </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
@@ -17664,7 +17691,7 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
@@ -17681,7 +17708,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -17689,7 +17716,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -17699,7 +17726,7 @@
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
@@ -17717,7 +17744,7 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
@@ -17734,7 +17761,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -17742,7 +17769,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -17752,7 +17779,7 @@
       </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
@@ -17770,7 +17797,7 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
@@ -17787,7 +17814,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -17795,7 +17822,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -17805,7 +17832,7 @@
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
@@ -17823,7 +17850,7 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
@@ -17840,7 +17867,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -17848,7 +17875,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -17858,7 +17885,7 @@
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
@@ -17876,7 +17903,7 @@
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
@@ -17893,7 +17920,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -17901,7 +17928,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -17911,7 +17938,7 @@
       </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
@@ -17929,7 +17956,7 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
@@ -17946,7 +17973,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -17954,7 +17981,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -17964,7 +17991,7 @@
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
@@ -17982,7 +18009,7 @@
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AE20" s="4"/>
       <c r="AF20" s="4"/>
@@ -17999,7 +18026,7 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -18007,7 +18034,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -18017,7 +18044,7 @@
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
@@ -18035,7 +18062,7 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
@@ -18052,7 +18079,7 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -18060,7 +18087,7 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -18070,7 +18097,7 @@
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
@@ -18088,7 +18115,7 @@
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
@@ -18105,7 +18132,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -18113,7 +18140,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -18123,7 +18150,7 @@
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
@@ -18141,7 +18168,7 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AE23" s="4"/>
       <c r="AF23" s="4"/>
@@ -18158,7 +18185,7 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -18166,7 +18193,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -18176,7 +18203,7 @@
       </c>
       <c r="Q24" s="4"/>
       <c r="R24" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
@@ -18194,7 +18221,7 @@
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
@@ -18211,7 +18238,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -18219,7 +18246,7 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
@@ -18229,7 +18256,7 @@
       </c>
       <c r="Q25" s="4"/>
       <c r="R25" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
@@ -18247,7 +18274,7 @@
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AE25" s="4"/>
       <c r="AF25" s="4"/>
@@ -18264,7 +18291,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -18272,7 +18299,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -18282,7 +18309,7 @@
       </c>
       <c r="Q26" s="4"/>
       <c r="R26" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
@@ -18300,7 +18327,7 @@
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AE26" s="4"/>
       <c r="AF26" s="4"/>
@@ -18317,7 +18344,7 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -18325,7 +18352,7 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -18335,7 +18362,7 @@
       </c>
       <c r="Q27" s="4"/>
       <c r="R27" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
@@ -18353,7 +18380,7 @@
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AE27" s="4"/>
       <c r="AF27" s="4"/>
@@ -18370,7 +18397,7 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -18378,7 +18405,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
@@ -18388,7 +18415,7 @@
       </c>
       <c r="Q28" s="4"/>
       <c r="R28" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
@@ -18406,7 +18433,7 @@
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AE28" s="4"/>
       <c r="AF28" s="4"/>
@@ -18423,7 +18450,7 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -18431,7 +18458,7 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -18441,7 +18468,7 @@
       </c>
       <c r="Q29" s="4"/>
       <c r="R29" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
@@ -18459,7 +18486,7 @@
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE29" s="4"/>
       <c r="AF29" s="4"/>
@@ -18476,7 +18503,7 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -18484,7 +18511,7 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -18494,7 +18521,7 @@
       </c>
       <c r="Q30" s="4"/>
       <c r="R30" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
@@ -18512,7 +18539,7 @@
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AE30" s="4"/>
       <c r="AF30" s="4"/>
@@ -18529,7 +18556,7 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -18537,7 +18564,7 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
@@ -18547,7 +18574,7 @@
       </c>
       <c r="Q31" s="4"/>
       <c r="R31" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
@@ -18565,7 +18592,7 @@
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AE31" s="4"/>
       <c r="AF31" s="4"/>
@@ -18582,7 +18609,7 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -18590,7 +18617,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
@@ -18600,7 +18627,7 @@
       </c>
       <c r="Q32" s="4"/>
       <c r="R32" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
@@ -18618,7 +18645,7 @@
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AE32" s="4"/>
       <c r="AF32" s="4"/>
@@ -18635,7 +18662,7 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -18643,7 +18670,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -18653,7 +18680,7 @@
       </c>
       <c r="Q33" s="4"/>
       <c r="R33" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
@@ -18671,7 +18698,7 @@
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AE33" s="4"/>
       <c r="AF33" s="4"/>
@@ -18688,7 +18715,7 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -18696,7 +18723,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -18706,7 +18733,7 @@
       </c>
       <c r="Q34" s="4"/>
       <c r="R34" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
@@ -18724,7 +18751,7 @@
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AE34" s="4"/>
       <c r="AF34" s="4"/>
@@ -18741,7 +18768,7 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -18749,7 +18776,7 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
@@ -18759,7 +18786,7 @@
       </c>
       <c r="Q35" s="4"/>
       <c r="R35" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
@@ -18777,7 +18804,7 @@
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
       <c r="AD35" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AE35" s="4"/>
       <c r="AF35" s="4"/>
@@ -18794,7 +18821,7 @@
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -18802,7 +18829,7 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
@@ -18812,7 +18839,7 @@
       </c>
       <c r="Q36" s="4"/>
       <c r="R36" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
@@ -18830,7 +18857,7 @@
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
       <c r="AD36" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE36" s="4"/>
       <c r="AF36" s="4"/>
@@ -18847,7 +18874,7 @@
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -18855,7 +18882,7 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
@@ -18865,7 +18892,7 @@
       </c>
       <c r="Q37" s="4"/>
       <c r="R37" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
@@ -18883,7 +18910,7 @@
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
       <c r="AD37" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AE37" s="4"/>
       <c r="AF37" s="4"/>
@@ -18900,7 +18927,7 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -18908,7 +18935,7 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
@@ -18918,7 +18945,7 @@
       </c>
       <c r="Q38" s="4"/>
       <c r="R38" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
@@ -18936,7 +18963,7 @@
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
       <c r="AD38" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AE38" s="4"/>
       <c r="AF38" s="4"/>
@@ -18953,7 +18980,7 @@
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -18961,7 +18988,7 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
@@ -18971,7 +18998,7 @@
       </c>
       <c r="Q39" s="4"/>
       <c r="R39" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
@@ -18989,7 +19016,7 @@
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
       <c r="AD39" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AE39" s="4"/>
       <c r="AF39" s="4"/>
@@ -19006,7 +19033,7 @@
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -19014,7 +19041,7 @@
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
@@ -19024,7 +19051,7 @@
       </c>
       <c r="Q40" s="4"/>
       <c r="R40" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
@@ -19042,7 +19069,7 @@
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
       <c r="AD40" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AE40" s="4"/>
       <c r="AF40" s="4"/>
@@ -19059,7 +19086,7 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -19067,7 +19094,7 @@
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
@@ -19077,7 +19104,7 @@
       </c>
       <c r="Q41" s="4"/>
       <c r="R41" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
@@ -19095,7 +19122,7 @@
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
       <c r="AD41" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AE41" s="4"/>
       <c r="AF41" s="4"/>
@@ -19112,7 +19139,7 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -19120,7 +19147,7 @@
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
@@ -19130,7 +19157,7 @@
       </c>
       <c r="Q42" s="4"/>
       <c r="R42" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
@@ -19148,7 +19175,7 @@
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
       <c r="AD42" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AE42" s="4"/>
       <c r="AF42" s="4"/>
@@ -19165,7 +19192,7 @@
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -19173,7 +19200,7 @@
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
@@ -19183,7 +19210,7 @@
       </c>
       <c r="Q43" s="4"/>
       <c r="R43" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
@@ -19201,7 +19228,7 @@
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
       <c r="AD43" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AE43" s="4"/>
       <c r="AF43" s="4"/>
@@ -19218,7 +19245,7 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -19226,7 +19253,7 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
@@ -19236,7 +19263,7 @@
       </c>
       <c r="Q44" s="4"/>
       <c r="R44" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
@@ -19254,7 +19281,7 @@
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
       <c r="AD44" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AE44" s="4"/>
       <c r="AF44" s="4"/>
@@ -19271,7 +19298,7 @@
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -19279,7 +19306,7 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
@@ -19289,7 +19316,7 @@
       </c>
       <c r="Q45" s="4"/>
       <c r="R45" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S45" s="4"/>
       <c r="T45" s="4"/>
@@ -19307,7 +19334,7 @@
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
       <c r="AD45" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AE45" s="4"/>
       <c r="AF45" s="4"/>
@@ -19324,7 +19351,7 @@
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -19332,7 +19359,7 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
@@ -19342,7 +19369,7 @@
       </c>
       <c r="Q46" s="4"/>
       <c r="R46" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S46" s="4"/>
       <c r="T46" s="4"/>
@@ -19360,7 +19387,7 @@
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
       <c r="AD46" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AE46" s="4"/>
       <c r="AF46" s="4"/>
@@ -19377,7 +19404,7 @@
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -19385,7 +19412,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
@@ -19395,7 +19422,7 @@
       </c>
       <c r="Q47" s="4"/>
       <c r="R47" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
@@ -19413,7 +19440,7 @@
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
       <c r="AD47" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AE47" s="4"/>
       <c r="AF47" s="4"/>
@@ -19430,7 +19457,7 @@
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -19438,7 +19465,7 @@
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
@@ -19448,7 +19475,7 @@
       </c>
       <c r="Q48" s="4"/>
       <c r="R48" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S48" s="4"/>
       <c r="T48" s="4"/>
@@ -19466,7 +19493,7 @@
       <c r="AB48" s="4"/>
       <c r="AC48" s="4"/>
       <c r="AD48" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AE48" s="4"/>
       <c r="AF48" s="4"/>
@@ -19483,7 +19510,7 @@
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -19491,7 +19518,7 @@
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
@@ -19501,7 +19528,7 @@
       </c>
       <c r="Q49" s="4"/>
       <c r="R49" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S49" s="4"/>
       <c r="T49" s="4"/>
@@ -19519,7 +19546,7 @@
       <c r="AB49" s="4"/>
       <c r="AC49" s="4"/>
       <c r="AD49" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE49" s="4"/>
       <c r="AF49" s="4"/>
@@ -19536,7 +19563,7 @@
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -19544,7 +19571,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
@@ -19554,7 +19581,7 @@
       </c>
       <c r="Q50" s="4"/>
       <c r="R50" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S50" s="4"/>
       <c r="T50" s="4"/>
@@ -19572,7 +19599,7 @@
       <c r="AB50" s="4"/>
       <c r="AC50" s="4"/>
       <c r="AD50" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AE50" s="4"/>
       <c r="AF50" s="4"/>
@@ -19589,7 +19616,7 @@
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -19597,7 +19624,7 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
@@ -19607,7 +19634,7 @@
       </c>
       <c r="Q51" s="4"/>
       <c r="R51" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S51" s="4"/>
       <c r="T51" s="4"/>
@@ -19625,7 +19652,7 @@
       <c r="AB51" s="4"/>
       <c r="AC51" s="4"/>
       <c r="AD51" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AE51" s="4"/>
       <c r="AF51" s="4"/>
@@ -19642,7 +19669,7 @@
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -19650,7 +19677,7 @@
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
@@ -19660,7 +19687,7 @@
       </c>
       <c r="Q52" s="4"/>
       <c r="R52" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S52" s="4"/>
       <c r="T52" s="4"/>
@@ -19678,7 +19705,7 @@
       <c r="AB52" s="4"/>
       <c r="AC52" s="4"/>
       <c r="AD52" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AE52" s="4"/>
       <c r="AF52" s="4"/>
@@ -19695,7 +19722,7 @@
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -19703,7 +19730,7 @@
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
@@ -19713,7 +19740,7 @@
       </c>
       <c r="Q53" s="4"/>
       <c r="R53" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S53" s="4"/>
       <c r="T53" s="4"/>
@@ -19731,7 +19758,7 @@
       <c r="AB53" s="4"/>
       <c r="AC53" s="4"/>
       <c r="AD53" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AE53" s="4"/>
       <c r="AF53" s="4"/>
@@ -19748,7 +19775,7 @@
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -19756,7 +19783,7 @@
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
@@ -19766,7 +19793,7 @@
       </c>
       <c r="Q54" s="4"/>
       <c r="R54" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S54" s="4"/>
       <c r="T54" s="4"/>
@@ -19784,7 +19811,7 @@
       <c r="AB54" s="4"/>
       <c r="AC54" s="4"/>
       <c r="AD54" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AE54" s="4"/>
       <c r="AF54" s="4"/>
@@ -19801,7 +19828,7 @@
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -19809,7 +19836,7 @@
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
@@ -19819,7 +19846,7 @@
       </c>
       <c r="Q55" s="4"/>
       <c r="R55" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S55" s="4"/>
       <c r="T55" s="4"/>
@@ -19837,7 +19864,7 @@
       <c r="AB55" s="4"/>
       <c r="AC55" s="4"/>
       <c r="AD55" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AE55" s="4"/>
       <c r="AF55" s="4"/>
@@ -19854,7 +19881,7 @@
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -19862,7 +19889,7 @@
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
@@ -19872,7 +19899,7 @@
       </c>
       <c r="Q56" s="4"/>
       <c r="R56" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S56" s="4"/>
       <c r="T56" s="4"/>
@@ -19890,7 +19917,7 @@
       <c r="AB56" s="4"/>
       <c r="AC56" s="4"/>
       <c r="AD56" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AE56" s="4"/>
       <c r="AF56" s="4"/>
@@ -19907,7 +19934,7 @@
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -19915,7 +19942,7 @@
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
@@ -19925,7 +19952,7 @@
       </c>
       <c r="Q57" s="4"/>
       <c r="R57" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S57" s="4"/>
       <c r="T57" s="4"/>
@@ -19943,7 +19970,7 @@
       <c r="AB57" s="4"/>
       <c r="AC57" s="4"/>
       <c r="AD57" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AE57" s="4"/>
       <c r="AF57" s="4"/>
@@ -19960,7 +19987,7 @@
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -19968,7 +19995,7 @@
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
@@ -19978,7 +20005,7 @@
       </c>
       <c r="Q58" s="4"/>
       <c r="R58" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S58" s="4"/>
       <c r="T58" s="4"/>
@@ -19996,7 +20023,7 @@
       <c r="AB58" s="4"/>
       <c r="AC58" s="4"/>
       <c r="AD58" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AE58" s="4"/>
       <c r="AF58" s="4"/>
@@ -20013,7 +20040,7 @@
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -20021,7 +20048,7 @@
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
@@ -20031,7 +20058,7 @@
       </c>
       <c r="Q59" s="4"/>
       <c r="R59" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S59" s="4"/>
       <c r="T59" s="4"/>
@@ -20049,7 +20076,7 @@
       <c r="AB59" s="4"/>
       <c r="AC59" s="4"/>
       <c r="AD59" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AE59" s="4"/>
       <c r="AF59" s="4"/>
@@ -20066,7 +20093,7 @@
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
@@ -20074,7 +20101,7 @@
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
@@ -20084,7 +20111,7 @@
       </c>
       <c r="Q60" s="4"/>
       <c r="R60" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S60" s="4"/>
       <c r="T60" s="4"/>
@@ -20102,7 +20129,7 @@
       <c r="AB60" s="4"/>
       <c r="AC60" s="4"/>
       <c r="AD60" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AE60" s="4"/>
       <c r="AF60" s="4"/>
@@ -20119,7 +20146,7 @@
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -20127,7 +20154,7 @@
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
@@ -20137,7 +20164,7 @@
       </c>
       <c r="Q61" s="4"/>
       <c r="R61" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S61" s="4"/>
       <c r="T61" s="4"/>
@@ -20155,7 +20182,7 @@
       <c r="AB61" s="4"/>
       <c r="AC61" s="4"/>
       <c r="AD61" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AE61" s="4"/>
       <c r="AF61" s="4"/>
@@ -20304,20 +20331,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -20357,16 +20384,16 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -20402,20 +20429,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -20457,16 +20484,16 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -20502,7 +20529,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -20511,19 +20538,19 @@
     </row>
     <row r="2" spans="1:5" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -20568,7 +20595,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -20580,28 +20607,28 @@
     </row>
     <row r="2" spans="1:8" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
   </sheetData>
@@ -20656,7 +20683,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -20672,40 +20699,40 @@
     </row>
     <row r="2" spans="1:12" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -20772,7 +20799,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -20781,19 +20808,19 @@
     </row>
     <row r="2" spans="1:5" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -20838,7 +20865,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -20861,61 +20888,61 @@
     </row>
     <row r="2" spans="1:19" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -21004,7 +21031,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -21014,22 +21041,22 @@
     </row>
     <row r="2" spans="1:6" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -21077,7 +21104,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -21103,70 +21130,70 @@
     </row>
     <row r="2" spans="1:22" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -21264,7 +21291,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -21281,43 +21308,43 @@
     </row>
     <row r="2" spans="1:13" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -21390,7 +21417,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -21399,19 +21426,19 @@
     </row>
     <row r="2" spans="1:5" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -21456,104 +21483,104 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.01" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.01" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.01" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.01" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.01" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.01" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.01" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.01" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.01" customHeight="1">
       <c r="A11" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.01" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.01" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/examples/sbtab-sbml/jiang_model.xlsx
+++ b/examples/sbtab-sbml/jiang_model.xlsx
@@ -6342,10 +6342,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="702">
   <si>
-    <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2019-10-10 23:11:10'</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2019-10-10 23:11:10' ObjTablesVersion='0.0.8' Document='BIOMD0000000239'</t>
+    <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2020-03-05 18:11:35'</t>
+  </si>
+  <si>
+    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8' Document='BIOMD0000000239'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6432,7 +6432,7 @@
     <t>MATRIX</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2019-10-10 23:11:10' ObjTablesVersion='0.0.8' Document='BIOMD0000000239'</t>
+    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8' Document='BIOMD0000000239'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6921,7 +6921,7 @@
     <t>C00125</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2019-10-10 23:11:10' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6936,7 +6936,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2019-10-10 23:11:10' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6957,7 +6957,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2019-10-10 23:11:10' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6972,7 +6972,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2019-10-10 23:11:11' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -7002,7 +7002,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2019-10-10 23:11:11' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -7038,7 +7038,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2019-10-10 23:11:11' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -7050,7 +7050,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2019-10-10 23:11:11' ObjTablesVersion='0.0.8' Document='BIOMD0000000239'</t>
+    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8' Document='BIOMD0000000239'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -7116,16 +7116,16 @@
     <t>ignore</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2019-10-10 23:11:11' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2019-10-10 23:11:11' ObjTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2019-10-10 23:11:11' ObjTablesVersion='0.0.8' Document='BIOMD0000000239'</t>
+    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
+  </si>
+  <si>
+    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8' Document='BIOMD0000000239'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -7593,7 +7593,7 @@
     <t>[0, 0, Nkm, 0, 0, 0, 0, 0]</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2019-10-10 23:11:11' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -7611,7 +7611,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2019-10-10 23:11:11' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -7650,7 +7650,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2019-10-10 23:11:12' ObjTablesVersion='0.0.8' Document='BIOMD0000000239'</t>
+    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8' Document='BIOMD0000000239'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -8319,7 +8319,7 @@
     <t>MATRIX * (v44_MDH * Kcat * Mal / (Km + Mal))</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2019-10-10 23:11:12' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -8331,7 +8331,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2019-10-10 23:11:12' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -8343,7 +8343,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2019-10-10 23:11:12' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!From</t>
@@ -8358,13 +8358,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2019-10-10 23:11:12' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2019-10-10 23:11:12' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -8373,13 +8373,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2019-10-10 23:11:12' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2019-10-10 23:11:12' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -8388,19 +8388,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2019-10-10 23:11:12' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2019-10-10 23:11:13' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2019-10-10 23:11:13' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -8421,7 +8421,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2019-10-10 23:11:13' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>
@@ -9055,7 +9055,7 @@
       <c r="T7" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A3:T7"/>
   <dataValidations count="20">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A4:A7">
@@ -9161,7 +9161,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:C2"/>
   <dataValidations count="3">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Element" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Element" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -9263,7 +9263,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:O2"/>
   <dataValidations count="15">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -11962,7 +11962,7 @@
       <c r="BW23" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:BW23"/>
   <dataValidations count="75">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A23">
@@ -12318,7 +12318,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:S2"/>
   <dataValidations count="19">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="QuantityType" error="QuantityType (e.g. from SBO)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="QuantityType" prompt="QuantityType (e.g. from SBO)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -12608,7 +12608,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:AW2"/>
   <dataValidations count="49">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -16343,7 +16343,7 @@
       <c r="AU47" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:AU47"/>
   <dataValidations count="47">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A47">
@@ -16542,7 +16542,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:F2"/>
   <dataValidations count="6">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Identifier shortname of the reaction&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Identifier shortname of the reaction&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -16659,7 +16659,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:Q2"/>
   <dataValidations count="17">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -16783,7 +16783,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:J2"/>
   <dataValidations count="10">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -16873,7 +16873,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:G2"/>
   <dataValidations count="7">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -20193,7 +20193,7 @@
       <c r="AI61" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:AI61"/>
   <dataValidations count="35">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A61">
@@ -20348,7 +20348,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:C2"/>
   <dataValidations count="3">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowID" error="Row identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="RowID" prompt="Row identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -20397,7 +20397,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:B2"/>
   <dataValidations count="2">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ColumnID" error="Column identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ColumnID" prompt="Column identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -20446,7 +20446,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:C2"/>
   <dataValidations count="3">
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowNumber" error="Number of row&#10;&#10;Value must be an integer." promptTitle="RowNumber" prompt="Number of row&#10;&#10;Enter an integer." sqref="A2:A3">
@@ -20497,7 +20497,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:B2"/>
   <dataValidations count="2">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowID" error="Row identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="RowID" prompt="Row identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -20554,7 +20554,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:E2"/>
   <dataValidations count="5">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReactionID" error="Reaction shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReactionID" prompt="Reaction shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -20632,7 +20632,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:H2"/>
   <dataValidations count="8">
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="UID:Contingency" error="ID for contingency&#10;&#10;Value must be an integer." promptTitle="UID:Contingency" prompt="ID for contingency&#10;&#10;Enter an integer." sqref="A2:A3">
@@ -20736,7 +20736,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:L2"/>
   <dataValidations count="12">
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="ID for reaction&#10;&#10;Value must be an integer." promptTitle="ID" prompt="ID for reaction&#10;&#10;Enter an integer." sqref="A2:A3">
@@ -20824,7 +20824,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:E2"/>
   <dataValidations count="5">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ComponentName" error="Name of component (table, column, attribute to be defined)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ComponentName" prompt="Name of component (table, column, attribute to be defined)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -20946,7 +20946,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:S2"/>
   <dataValidations count="19">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -21060,7 +21060,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:F2"/>
   <dataValidations count="6">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Unique identifier of objective in FBC package&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Unique identifier of objective in FBC package&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -21197,7 +21197,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:V2"/>
   <dataValidations count="22">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -21348,7 +21348,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:M2"/>
   <dataValidations count="13">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Unique identifier of layout package&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Unique identifier of layout package&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -21442,7 +21442,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:E2"/>
   <dataValidations count="5">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sample" error="Measurement value shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Sample" prompt="Measurement value shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -21584,7 +21584,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:B13"/>
   <dataValidations count="2">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Option" error="Which option is addressed&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Option" prompt="Which option is addressed&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A13">

--- a/examples/sbtab-sbml/jiang_model.xlsx
+++ b/examples/sbtab-sbml/jiang_model.xlsx
@@ -6342,10 +6342,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="702">
   <si>
-    <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2020-03-05 18:11:35'</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8' Document='BIOMD0000000239'</t>
+    <t>!!!ObjTables objTablesVersion='0.0.8' date='2020-03-09 13:02:01'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' id='Compartment' name='Compartment' date='2020-03-09 13:02:01' objTablesVersion='0.0.8' document='BIOMD0000000239'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6432,7 +6432,7 @@
     <t>MATRIX</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8' Document='BIOMD0000000239'</t>
+    <t>!!ObjTables type='Data' id='Compound' name='Compound' date='2020-03-09 13:02:01' objTablesVersion='0.0.8' document='BIOMD0000000239'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6921,7 +6921,7 @@
     <t>C00125</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Definition' name='Definition' date='2020-03-09 13:02:01' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6936,7 +6936,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Enzyme' name='Enzyme' date='2020-03-09 13:02:01' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6957,7 +6957,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='FbcObjective' name='FbcObjective' date='2020-03-09 13:02:01' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6972,7 +6972,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Gene' name='Gene' date='2020-03-09 13:02:01' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -7002,7 +7002,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Layout' name='Layout' date='2020-03-09 13:02:01' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -7038,7 +7038,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Measurement' name='Measurement' date='2020-03-09 13:02:01' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -7050,7 +7050,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8' Document='BIOMD0000000239'</t>
+    <t>!!ObjTables type='Data' id='PbConfig' name='PbConfig' date='2020-03-09 13:02:01' objTablesVersion='0.0.8' document='BIOMD0000000239'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -7116,16 +7116,16 @@
     <t>ignore</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Position' name='Position' date='2020-03-09 13:02:01' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8' Document='BIOMD0000000239'</t>
+    <t>!!ObjTables type='Data' id='Protein' name='Protein' date='2020-03-09 13:02:01' objTablesVersion='0.0.8'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' id='Quantity' name='Quantity' date='2020-03-09 13:02:01' objTablesVersion='0.0.8' document='BIOMD0000000239'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -7593,7 +7593,7 @@
     <t>[0, 0, Nkm, 0, 0, 0, 0, 0]</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='QuantityInfo' name='QuantityInfo' date='2020-03-09 13:02:01' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -7611,7 +7611,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='QuantityMatrix' name='QuantityMatrix' date='2020-03-09 13:02:01' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -7650,7 +7650,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8' Document='BIOMD0000000239'</t>
+    <t>!!ObjTables type='Data' id='Reaction' name='Reaction' date='2020-03-09 13:02:01' objTablesVersion='0.0.8' document='BIOMD0000000239'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -8319,7 +8319,7 @@
     <t>MATRIX * (v44_MDH * Kcat * Mal / (Km + Mal))</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-03-09 13:02:01' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -8331,7 +8331,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Regulator' name='Regulator' date='2020-03-09 13:02:01' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -8343,7 +8343,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Relation' name='Relation' date='2020-03-09 13:02:01' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!From</t>
@@ -8358,13 +8358,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Relationship' name='Relationship' date='2020-03-09 13:02:01' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrix' name='SparseMatrix' date='2020-03-09 13:02:01' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -8373,13 +8373,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-03-09 13:02:01' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-03-09 13:02:01' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -8388,19 +8388,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-03-09 13:02:01' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-03-09 13:02:01' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-03-09 13:02:02' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -8421,7 +8421,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2020-03-05 18:11:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='rxnconReactionList' name='rxnconReactionList' date='2020-03-09 13:02:02' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>

--- a/examples/sbtab-sbml/jiang_model.xlsx
+++ b/examples/sbtab-sbml/jiang_model.xlsx
@@ -6342,10 +6342,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="702">
   <si>
-    <t>!!!ObjTables objTablesVersion='0.0.8' date='2020-03-09 13:02:01'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='Data' id='Compartment' name='Compartment' date='2020-03-09 13:02:01' objTablesVersion='0.0.8' document='BIOMD0000000239'</t>
+    <t>!!!ObjTables objTablesVersion='0.0.8' date='2020-03-09 15:32:23'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' id='Compartment' name='Compartment' date='2020-03-09 15:32:23' objTablesVersion='0.0.8' document='BIOMD0000000239' tableFormat='row'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6432,7 +6432,7 @@
     <t>MATRIX</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Compound' name='Compound' date='2020-03-09 13:02:01' objTablesVersion='0.0.8' document='BIOMD0000000239'</t>
+    <t>!!ObjTables type='Data' id='Compound' name='Compound' date='2020-03-09 15:32:23' objTablesVersion='0.0.8' document='BIOMD0000000239' tableFormat='row'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6921,7 +6921,7 @@
     <t>C00125</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Definition' name='Definition' date='2020-03-09 13:02:01' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Definition' name='Definition' date='2020-03-09 15:32:24' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6936,7 +6936,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Enzyme' name='Enzyme' date='2020-03-09 13:02:01' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Enzyme' name='Enzyme' date='2020-03-09 15:32:24' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6957,7 +6957,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='FbcObjective' name='FbcObjective' date='2020-03-09 13:02:01' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='FbcObjective' name='FbcObjective' date='2020-03-09 15:32:24' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6972,7 +6972,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Gene' name='Gene' date='2020-03-09 13:02:01' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Gene' name='Gene' date='2020-03-09 15:32:24' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -7002,7 +7002,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Layout' name='Layout' date='2020-03-09 13:02:01' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Layout' name='Layout' date='2020-03-09 15:32:24' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -7038,7 +7038,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Measurement' name='Measurement' date='2020-03-09 13:02:01' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Measurement' name='Measurement' date='2020-03-09 15:32:24' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -7050,7 +7050,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='PbConfig' name='PbConfig' date='2020-03-09 13:02:01' objTablesVersion='0.0.8' document='BIOMD0000000239'</t>
+    <t>!!ObjTables type='Data' id='PbConfig' name='PbConfig' date='2020-03-09 15:32:24' objTablesVersion='0.0.8' document='BIOMD0000000239' tableFormat='row'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -7116,16 +7116,16 @@
     <t>ignore</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Position' name='Position' date='2020-03-09 13:02:01' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Position' name='Position' date='2020-03-09 15:32:24' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Protein' name='Protein' date='2020-03-09 13:02:01' objTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='Data' id='Quantity' name='Quantity' date='2020-03-09 13:02:01' objTablesVersion='0.0.8' document='BIOMD0000000239'</t>
+    <t>!!ObjTables type='Data' id='Protein' name='Protein' date='2020-03-09 15:32:24' objTablesVersion='0.0.8' tableFormat='row'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' id='Quantity' name='Quantity' date='2020-03-09 15:32:24' objTablesVersion='0.0.8' document='BIOMD0000000239' tableFormat='row'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -7593,7 +7593,7 @@
     <t>[0, 0, Nkm, 0, 0, 0, 0, 0]</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='QuantityInfo' name='QuantityInfo' date='2020-03-09 13:02:01' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='QuantityInfo' name='QuantityInfo' date='2020-03-09 15:32:24' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -7611,7 +7611,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='QuantityMatrix' name='QuantityMatrix' date='2020-03-09 13:02:01' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='QuantityMatrix' name='QuantityMatrix' date='2020-03-09 15:32:24' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -7650,7 +7650,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Reaction' name='Reaction' date='2020-03-09 13:02:01' objTablesVersion='0.0.8' document='BIOMD0000000239'</t>
+    <t>!!ObjTables type='Data' id='Reaction' name='Reaction' date='2020-03-09 15:32:24' objTablesVersion='0.0.8' document='BIOMD0000000239' tableFormat='row'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -8319,7 +8319,7 @@
     <t>MATRIX * (v44_MDH * Kcat * Mal / (Km + Mal))</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-03-09 13:02:01' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-03-09 15:32:24' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -8331,7 +8331,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Regulator' name='Regulator' date='2020-03-09 13:02:01' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Regulator' name='Regulator' date='2020-03-09 15:32:24' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -8343,7 +8343,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Relation' name='Relation' date='2020-03-09 13:02:01' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Relation' name='Relation' date='2020-03-09 15:32:24' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!From</t>
@@ -8358,13 +8358,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Relationship' name='Relationship' date='2020-03-09 13:02:01' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Relationship' name='Relationship' date='2020-03-09 15:32:24' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrix' name='SparseMatrix' date='2020-03-09 13:02:01' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrix' name='SparseMatrix' date='2020-03-09 15:32:24' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -8373,13 +8373,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-03-09 13:02:01' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-03-09 15:32:24' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-03-09 13:02:01' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-03-09 15:32:24' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -8388,19 +8388,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-03-09 13:02:01' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-03-09 15:32:24' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-03-09 13:02:01' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-03-09 15:32:24' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-03-09 13:02:02' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-03-09 15:32:24' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -8421,7 +8421,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='rxnconReactionList' name='rxnconReactionList' date='2020-03-09 13:02:02' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='rxnconReactionList' name='rxnconReactionList' date='2020-03-09 15:32:24' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>
